--- a/src/test/resources/testdata/TaskCreationTestData.xlsx
+++ b/src/test/resources/testdata/TaskCreationTestData.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smehta\eclipse-workspace\TAF_Template\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smehta\eclipse-workspace\sc-qa-taf-workbench\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA0749-2182-4985-A51D-3A91504C355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D31C9A-FF2A-44D4-B5C2-CF31E6A08AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5F7D3B99-D034-441B-B1F7-06ED4F3CD305}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F7D3B99-D034-441B-B1F7-06ED4F3CD305}"/>
   </bookViews>
   <sheets>
-    <sheet name="TaskCreationData" sheetId="1" r:id="rId1"/>
-    <sheet name="VIMAPP" sheetId="2" r:id="rId2"/>
+    <sheet name="bulkupload" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Sr No</t>
   </si>
@@ -49,19 +48,19 @@
     <t>supplyCOPIA12#$</t>
   </si>
   <si>
-    <t>smehta@supplycopia.com</t>
-  </si>
-  <si>
     <t>UserLoginTest2</t>
   </si>
   <si>
     <t>UserLoginTest3</t>
   </si>
   <si>
-    <t>UserAccessTest</t>
-  </si>
-  <si>
     <t>Access</t>
+  </si>
+  <si>
+    <t>qa-automation@supplycopia.com</t>
+  </si>
+  <si>
+    <t>CategoryMasterTest</t>
   </si>
 </sst>
 </file>
@@ -447,15 +446,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FA0CC-B4DB-4341-A9AD-E7F79838C2AC}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -474,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -482,10 +481,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -499,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -516,10 +515,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -536,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -550,131 +549,10 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="admin@123" xr:uid="{DA892068-319F-4704-AFD7-85DEF9591529}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{C8CB71C3-26B2-40D7-961C-59E9144BB3D4}"/>
-    <hyperlink ref="D3" r:id="rId3" display="admin@123" xr:uid="{638C276A-E449-4D99-BD8C-C8237E3651F5}"/>
-    <hyperlink ref="D4" r:id="rId4" display="admin@123" xr:uid="{050DDCDD-CFE8-4EA5-A569-41947D7AFBBE}"/>
-    <hyperlink ref="D5" r:id="rId5" display="admin@123" xr:uid="{87B90CCD-C900-49D7-8666-F57DA94FBC35}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{DFDB6F85-3B48-41E2-A0CC-61503C16A7B5}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{4BBE9132-BEF9-4C21-93E9-3C398F6B5EF5}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{22B9802F-9F03-49EA-92C9-F6A72BB86295}"/>
+    <hyperlink ref="C3:C5" r:id="rId3" display="qa-automation@supplycopia.com" xr:uid="{5A636117-3B56-44C8-ACDA-F4681D86C6A5}"/>
+    <hyperlink ref="D3:D5" r:id="rId4" display="admin@123" xr:uid="{3FE76148-ACFB-491A-8B5C-3C1F68BA0E72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C29B67-1A4D-4F25-BE70-2B8578CE7E07}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="admin@123" xr:uid="{86832030-F555-48ED-B910-64D625B31A84}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{188998DC-25ED-491D-A300-DCC6836ED68D}"/>
-    <hyperlink ref="D3" r:id="rId3" display="admin@123" xr:uid="{770F4488-1058-4142-9764-08AD757A93E4}"/>
-    <hyperlink ref="D4" r:id="rId4" display="admin@123" xr:uid="{4317C894-ACE6-4EFD-A68E-70EAA00E0B8C}"/>
-    <hyperlink ref="D5" r:id="rId5" display="admin@123" xr:uid="{7039CC2A-EAFD-4308-95CA-F227C46F4CDC}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{E39B46CF-D8C7-49F9-89FB-7E984CA0C4E6}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{CD2102DC-C722-4DD1-A831-E73D921F1104}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{359CE9E5-ABA5-44E7-BE89-7038EA7AF198}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/TaskCreationTestData.xlsx
+++ b/src/test/resources/testdata/TaskCreationTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smehta\eclipse-workspace\sc-qa-taf-workbench\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Soft\New program\sc-qa-taf-workbench\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D31C9A-FF2A-44D4-B5C2-CF31E6A08AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2487F2E-662D-4398-B047-6A88BB9F4A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F7D3B99-D034-441B-B1F7-06ED4F3CD305}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F7D3B99-D034-441B-B1F7-06ED4F3CD305}"/>
   </bookViews>
   <sheets>
     <sheet name="bulkupload" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Sr No</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>CategoryMasterTest</t>
+  </si>
+  <si>
+    <t>CategoryMasterManagementTest</t>
+  </si>
+  <si>
+    <t>ContractSupplierMasteTest</t>
   </si>
 </sst>
 </file>
@@ -444,22 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FA0CC-B4DB-4341-A9AD-E7F79838C2AC}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -510,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -527,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -541,6 +547,40 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -551,8 +591,12 @@
     <hyperlink ref="C2" r:id="rId2" xr:uid="{C8CB71C3-26B2-40D7-961C-59E9144BB3D4}"/>
     <hyperlink ref="C3:C5" r:id="rId3" display="qa-automation@supplycopia.com" xr:uid="{5A636117-3B56-44C8-ACDA-F4681D86C6A5}"/>
     <hyperlink ref="D3:D5" r:id="rId4" display="admin@123" xr:uid="{3FE76148-ACFB-491A-8B5C-3C1F68BA0E72}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{912B27EF-B42F-4842-9216-0C417842DCF0}"/>
+    <hyperlink ref="D6" r:id="rId6" display="admin@123" xr:uid="{EB847E69-FE1A-4700-9F25-D0FB4542454A}"/>
+    <hyperlink ref="D7" r:id="rId7" display="admin@123" xr:uid="{FF86B46A-959F-4DD1-92EA-0DFD0395A994}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{73602A27-4E77-4447-9D2F-31C2C97B1F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/TaskCreationTestData.xlsx
+++ b/src/test/resources/testdata/TaskCreationTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smehta\eclipse-workspace\sc-qa-taf-workbench\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D31C9A-FF2A-44D4-B5C2-CF31E6A08AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C811EBD4-DB78-47FD-8ED9-DDDE1E1316A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F7D3B99-D034-441B-B1F7-06ED4F3CD305}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sr No</t>
   </si>
@@ -39,35 +39,14 @@
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>UserLoginTest</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>supplyCOPIA12#$</t>
-  </si>
-  <si>
-    <t>UserLoginTest2</t>
-  </si>
-  <si>
-    <t>UserLoginTest3</t>
-  </si>
-  <si>
     <t>Access</t>
-  </si>
-  <si>
-    <t>qa-automation@supplycopia.com</t>
-  </si>
-  <si>
-    <t>CategoryMasterTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +58,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,17 +92,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,7 +415,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,86 +441,32 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="admin@123" xr:uid="{DA892068-319F-4704-AFD7-85DEF9591529}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{C8CB71C3-26B2-40D7-961C-59E9144BB3D4}"/>
-    <hyperlink ref="C3:C5" r:id="rId3" display="qa-automation@supplycopia.com" xr:uid="{5A636117-3B56-44C8-ACDA-F4681D86C6A5}"/>
-    <hyperlink ref="D3:D5" r:id="rId4" display="admin@123" xr:uid="{3FE76148-ACFB-491A-8B5C-3C1F68BA0E72}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/TaskCreationTestData.xlsx
+++ b/src/test/resources/testdata/TaskCreationTestData.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{98D5152A-4602-47D1-82B3-1A70F8024391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Soft\New program\Workbench\sc-qa-taf-workbench\src\test\resources\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D47811-1832-4E2D-8B15-3088ADC2D028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F7D3B99-D034-441B-B1F7-06ED4F3CD305}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="bulkupload" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>Sr No</t>
   </si>
@@ -105,6 +109,144 @@
   </si>
   <si>
     <t>MasterManagementSanityTest</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>CustomeSet</t>
+  </si>
+  <si>
+    <t>Upload Data Attributes</t>
+  </si>
+  <si>
+    <t>Category Master</t>
+  </si>
+  <si>
+    <t>ImportSheetName</t>
+  </si>
+  <si>
+    <t>Category_Master.xlsx</t>
+  </si>
+  <si>
+    <t>ValidationErrors</t>
+  </si>
+  <si>
+    <t>TotalRecords</t>
+  </si>
+  <si>
+    <t>Contract_Supplier_Master.xlsx</t>
+  </si>
+  <si>
+    <t>Country Account Master</t>
+  </si>
+  <si>
+    <t>Country_Account_Master.xlsx</t>
+  </si>
+  <si>
+    <t>Contract Supplier Master</t>
+  </si>
+  <si>
+    <t>Product Attributes</t>
+  </si>
+  <si>
+    <t>Product_Attributes.xlsx</t>
+  </si>
+  <si>
+    <t>Product Category Mapping</t>
+  </si>
+  <si>
+    <t>Product_Category_Mapping.xlsx</t>
+  </si>
+  <si>
+    <t>Product Manufacturer Mapping</t>
+  </si>
+  <si>
+    <t>Product_Manufacturer_Mapping.xlsx</t>
+  </si>
+  <si>
+    <t>Products Prices</t>
+  </si>
+  <si>
+    <t>Product_Prices.xlsx</t>
+  </si>
+  <si>
+    <t>Upload Documents</t>
+  </si>
+  <si>
+    <t>Product Documents</t>
+  </si>
+  <si>
+    <t>Product_Documents.xlsx</t>
+  </si>
+  <si>
+    <t>ImportFolderName</t>
+  </si>
+  <si>
+    <t>prod_document</t>
+  </si>
+  <si>
+    <t>CatDropDown</t>
+  </si>
+  <si>
+    <t>SubCatDropDown</t>
+  </si>
+  <si>
+    <t>Category-2</t>
+  </si>
+  <si>
+    <t>Sub Category-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product Description </t>
+  </si>
+  <si>
+    <t>ColumnName</t>
+  </si>
+  <si>
+    <t>NumberOfMapping</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>CountryDropDown</t>
+  </si>
+  <si>
+    <t>AccountDropDown</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>AccountUpdate-06</t>
+  </si>
+  <si>
+    <t>SupplierAnkit-31</t>
+  </si>
+  <si>
+    <t>SupplierDropDown</t>
+  </si>
+  <si>
+    <t>CurrencyDropDown</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>PricePerEaOriginal</t>
+  </si>
+  <si>
+    <t>PricePerEaUsd</t>
+  </si>
+  <si>
+    <t>PackPriceOriginal</t>
+  </si>
+  <si>
+    <t>packPriceUsd</t>
+  </si>
+  <si>
+    <t>ProRefNoDropDown</t>
   </si>
 </sst>
 </file>
@@ -477,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FA0CC-B4DB-4341-A9AD-E7F79838C2AC}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,9 +632,24 @@
     <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +665,65 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -543,12 +757,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -559,13 +773,28 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -576,13 +805,28 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -593,13 +837,28 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -610,13 +869,28 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -627,13 +901,28 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -644,13 +933,28 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -661,30 +965,63 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -696,12 +1033,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -712,13 +1049,31 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -730,12 +1085,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -746,13 +1101,16 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -763,13 +1121,16 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -780,13 +1141,16 @@
       <c r="E17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -797,13 +1161,16 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -815,12 +1182,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -831,13 +1198,25 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -849,12 +1228,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -865,13 +1244,46 @@
       <c r="E22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>143</v>
+      </c>
+      <c r="V22">
+        <v>143</v>
+      </c>
+      <c r="W22">
+        <v>143</v>
+      </c>
+      <c r="X22">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -886,6 +1298,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/TaskCreationTestData.xlsx
+++ b/src/test/resources/testdata/TaskCreationTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Soft\New program\Workbench\sc-qa-taf-workbench\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D47811-1832-4E2D-8B15-3088ADC2D028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D386C40-FFA2-4508-B5FF-9D6DA19CFB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F7D3B99-D034-441B-B1F7-06ED4F3CD305}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
   <si>
     <t>Sr No</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>ProRefNoDropDown</t>
+  </si>
+  <si>
+    <t>Product_Prices_Fly.xlsx</t>
   </si>
 </sst>
 </file>
@@ -621,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FA0CC-B4DB-4341-A9AD-E7F79838C2AC}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -738,6 +741,21 @@
       </c>
       <c r="E2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -745,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -755,6 +773,21 @@
       </c>
       <c r="E3" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -762,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -777,10 +810,10 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -794,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -809,10 +842,10 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -826,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -841,10 +874,10 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -858,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -873,10 +906,10 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -890,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -905,10 +938,10 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -922,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -934,13 +967,16 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -954,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -964,21 +1000,6 @@
       </c>
       <c r="E10" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -986,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1021,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1031,6 +1052,9 @@
       </c>
       <c r="E12" t="s">
         <v>10</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1038,7 +1062,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1049,23 +1073,8 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>17</v>
+      <c r="T13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1073,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1083,6 +1092,9 @@
       </c>
       <c r="E14" t="s">
         <v>10</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1090,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1110,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1120,9 +1132,6 @@
       </c>
       <c r="E16" t="s">
         <v>10</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -1130,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1141,8 +1150,17 @@
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="T17">
-        <v>3</v>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1150,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1160,9 +1178,6 @@
       </c>
       <c r="E18" t="s">
         <v>10</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -1170,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1180,6 +1195,39 @@
       </c>
       <c r="E19" t="s">
         <v>10</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>143</v>
+      </c>
+      <c r="V19">
+        <v>143</v>
+      </c>
+      <c r="W19">
+        <v>143</v>
+      </c>
+      <c r="X19">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -1187,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1197,18 +1245,6 @@
       </c>
       <c r="E20" t="s">
         <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" t="s">
-        <v>56</v>
-      </c>
-      <c r="S20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -1216,7 +1252,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1226,6 +1262,21 @@
       </c>
       <c r="E21" t="s">
         <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -1233,7 +1284,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1243,39 +1294,6 @@
       </c>
       <c r="E22" t="s">
         <v>10</v>
-      </c>
-      <c r="N22">
-        <v>20</v>
-      </c>
-      <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>65</v>
-      </c>
-      <c r="R22" t="s">
-        <v>68</v>
-      </c>
-      <c r="S22" t="s">
-        <v>60</v>
-      </c>
-      <c r="T22">
-        <v>5</v>
-      </c>
-      <c r="U22">
-        <v>143</v>
-      </c>
-      <c r="V22">
-        <v>143</v>
-      </c>
-      <c r="W22">
-        <v>143</v>
-      </c>
-      <c r="X22">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -1283,7 +1301,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
